--- a/app/exports/appointments.xlsx
+++ b/app/exports/appointments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,21 @@
           <t>created_at</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>booking_id</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>patient_email</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>patient_phone</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -552,6 +567,60 @@
           <t>2025-09-02T14:30:50.271951</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>John Carter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>60</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2025-09-04 15:24:38</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>calendly_booking_100_101</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/exports/appointments.xlsx
+++ b/app/exports/appointments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>appointment_id</t>
+          <t>booking_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>patient_id</t>
+          <t>patient_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>patient_name</t>
+          <t>patient_email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>patient_type</t>
+          <t>patient_phone</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -486,49 +486,23 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>created_at</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>booking_id</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>patient_email</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>patient_phone</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9ecc569f-2ca1-417c-b4ec-ef790dab7cbf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>101</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Aarav Sharma</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
+          <t>calendly_booking_96_97</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Dr. Sharma</t>
@@ -541,7 +515,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -559,24 +533,24 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2025-09-02T14:30:50.271951</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+          <t>2025-09-05 17:46:15</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>calendly_booking_96_97</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>John Carter</t>
+          <t>kadali.hrv@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -597,30 +571,865 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>60</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-05 17:47:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>calendly_booking_98_99</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dolly</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-05 17:56:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>calendly_booking_100_101</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v>60</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2025-09-04 15:24:38</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>calendly_booking_100_101</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>60</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-05 18:03:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SMOKE-TEST-001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Test User</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test@example.com</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>60</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-05 18:08:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>calendly_booking_102_103</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>kadali.hrv540@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>60</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-09-05 18:16:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SMOKE-TEST-001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Test User</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>test@example.com</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>60</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-09-05 18:22:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SMOKE-TEST-001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Test User</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>test@example.com</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>60</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-09-05 18:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SMOKE-TEST-001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Test User</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>test@example.com</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>60</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-09-05 18:26:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>calendly_booking_132_133</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2025-09-05 18:27:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>calendly_booking_112_113</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dr. Verma</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>City Hospital</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>60</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2025-09-06 02:11:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>calendly_booking_112_113</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>kadali.hrv540@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dr. Verma</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>60</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2025-09-06 02:12:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>calendly_booking_106_107</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sharma</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>60</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2025-09-06 02:20:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>calendly_booking_106_107</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sharma</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>206m1a0540@gmail.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>60</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2025-09-06 02:21:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>calendly_booking_48</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Test Patient</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>kadali.hrv@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>30</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2025-09-06 02:40:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>calendly_booking_104_105</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Harsha Sharma</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Dr. Sharma</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>60</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2025-09-06 02:44:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>calendly_booking_114_115</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dr. Verma</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>City Hospital</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>60</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2025-09-06 03:08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>calendly_booking_116_117</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dr. Verma</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>City Hospital</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>60</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2025-09-06 03:12:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>calendly_booking_116_117</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Priya Sharma</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>kadali.hrv@gmail.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Dr. Verma</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Main Clinic</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>60</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2025-09-06 03:13:43</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
